--- a/src/resources/conclusies.xlsx
+++ b/src/resources/conclusies.xlsx
@@ -11,13 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
-  <si>
-    <t>conclusies</t>
-  </si>
-  <si>
-    <t>Table 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>Id</t>
   </si>
@@ -25,76 +19,37 @@
     <t>Conclusie</t>
   </si>
   <si>
+    <t>Informatie</t>
+  </si>
+  <si>
     <t>Image</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>Conclusie 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
+    <t>AVNRT</t>
   </si>
   <si>
-    <t>conclusie1-plaatje.jpeg</t>
+    <t>vraag1-plaatje.jpeg</t>
   </si>
   <si>
-    <t>Conclusie 2</t>
+    <t>Atriaal flutter/ atriaal tachycardie</t>
   </si>
   <si>
-    <t>conclusie2-plaatje.jpeg</t>
+    <t>B</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">Conclusie 3
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
+    <t>Atriaal tachycardie/ Atipische avnrt</t>
   </si>
   <si>
-    <t>conclusie3-plaatje.jpeg</t>
+    <t>AVRT/ AVNRT/ Atriaal tachycardie</t>
+  </si>
+  <si>
+    <t>A tachycardie / flutter/ multifocale</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>boezem fibrileren</t>
   </si>
 </sst>
 </file>
@@ -116,18 +71,18 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,8 +101,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="14"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -168,6 +129,32 @@
       <bottom style="thin">
         <color indexed="11"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -207,12 +194,34 @@
       <right style="thin">
         <color indexed="10"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
       <top style="thin">
         <color indexed="11"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -260,57 +269,151 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -332,6 +435,8 @@
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffdbdbdb"/>
     </indexedColors>
   </colors>
@@ -349,10 +454,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -529,11 +634,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:srgbClr val="000000"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -542,34 +650,34 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue Medium"/>
-            <a:ea typeface="Helvetica Neue Medium"/>
-            <a:cs typeface="Helvetica Neue Medium"/>
-            <a:sym typeface="Helvetica Neue Medium"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -817,12 +925,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1113,7 +1221,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1391,139 +1499,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A2:G9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.33333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="7" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2.85156" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.0547" style="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5" style="1" customWidth="1"/>
-    <col min="6" max="7" width="8.35156" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.35156" style="1" customWidth="1"/>
+    <col min="1" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
+    <row r="1" ht="20.25" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="3">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="B2" t="s" s="6">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" t="s" s="8">
+        <v>5</v>
+      </c>
+      <c r="E2" s="9"/>
     </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+    <row r="3" ht="32.05" customHeight="1">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="9"/>
     </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s" s="10">
+    <row r="4" ht="32.05" customHeight="1">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="D4" t="s" s="10">
+      <c r="B4" t="s" s="11">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s" s="12">
+        <v>5</v>
+      </c>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" ht="32.05" customHeight="1">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="B5" t="s" s="11">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="9"/>
     </row>
-    <row r="5" ht="46.05" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="12">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s" s="13">
+    <row r="6" ht="32.05" customHeight="1">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="10">
+      <c r="B6" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s" s="12">
+        <v>5</v>
+      </c>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" ht="20.05" customHeight="1">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="B7" t="s" s="11">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="9"/>
     </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="12">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s" s="10">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s" s="10">
-        <v>8</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+    <row r="8" ht="14.7" customHeight="1">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="16"/>
     </row>
-    <row r="7" ht="323.5" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="12">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s" s="13">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+    <row r="9" ht="14.7" customHeight="1">
+      <c r="A9" s="17"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="16"/>
     </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
+    <row r="10" ht="14.7" customHeight="1">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/src/resources/conclusies.xlsx
+++ b/src/resources/conclusies.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>Id</t>
   </si>
@@ -34,10 +34,38 @@
     <t>Atriaal flutter/ atriaal tachycardie</t>
   </si>
   <si>
-    <t>B</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. In ante metus dictum at tempor commodo ullamcorper a. Ornare suspendisse sed nisi lacus sed viverra tellus in. Tortor at auctor urna nunc id. Luctus accumsan tortor posuere ac ut consequat. Venenatis a condimentum vitae sapien pellentesque habitant morbi tristique. Sit amet mattis vulputate enim nulla aliquet porttitor. Adipiscing elit duis tristique sollicitudin nibh sit amet commodo nulla. Amet porttitor eget dolor morbi non arcu risus. Neque laoreet suspendisse interdum consectetur libero. Lectus magna fringilla urna porttitor rhoncus dolor purus non enim. Quam elementum pulvinar etiam non quam lacus suspendisse faucibus. Sed velit dignissim sodales ut. Diam maecenas ultricies mi eget mauris. Tristique magna sit amet purus. Vulputate enim nulla aliquet porttitor lacus luctus accumsan. Scelerisque felis imperdiet proin fermentum leo vel. Volutpat odio facilisis mauris sit amet massa vitae tortor. Vulputate enim nulla aliquet porttitor lacus. Lacus vestibulum sed arcu non odio euismod. Erat pellentesque adipiscing commodo elit at. Eget nunc lobortis mattis aliquam faucibus purus in massa. Lorem donec massa sapien faucibus. Aliquam id diam maecenas ultricies mi. Scelerisque purus semper eget duis at. Elit at imperdiet dui accumsan sit amet nulla. Ornare massa eget egestas purus viverra. Sit amet est placerat in egestas erat imperdiet sed euismod. Rutrum quisque non tellus orci ac. Blandit turpis cursus in hac habitasse platea dictumst. Aliquet eget sit amet tellus. Nunc congue nisi vitae suscipit tellus mauris a diam. Vel pharetra vel turpis nunc eget. Eu tincidunt tortor aliquam nulla facilisi cras fermentum odio eu. Vel orci porta non pulvinar neque laoreet suspendisse interdum consectetur. Arcu non odio euismod lacinia. Sem et tortor consequat id porta. Turpis in eu mi bibendum neque egestas congue quisque egestas. Quis eleifend quam adipiscing vitae proin. Quis viverra nibh cras pulvinar mattis nunc sed blandit. Dictum at tempor commodo ullamcorper a lacus vestibulum sed arcu. Vitae proin sagittis nisl rhoncus mattis rhoncus urna. Egestas congue quisque egestas diam in arcu. Pellentesque massa placerat duis ultricies lacus sed turpis. Eu nisl nunc mi ipsum faucibus. Sit amet consectetur adipiscing elit pellentesque habitant morbi tristique senectus. In fermentum et sollicitudin ac orci phasellus egestas. Ut tortor pretium viverra suspendisse potenti. Urna nec tincidunt praesent semper feugiat. Vitae turpis massa sed elementum tempus egestas sed sed risus. Ornare arcu dui vivamus arcu felis bibendum ut. Nulla pellentesque dignissim enim sit. Turpis egestas maecenas pharetra convallis posuere morbi leo. Blandit massa enim nec dui nunc. Sed id semper risus in hendrerit. Ut morbi tincidunt augue interdum velit euismod in. Tristique nulla aliquet enim tortor at auctor urna nunc id. Ut eu sem integer vitae justo eget magna fermentum. Iaculis urna id volutpat lacus laoreet non curabitur. Vestibulum mattis ullamcorper velit sed ullamcorper morbi tincidunt. Lorem sed risus ultricies tristique nulla aliquet enim tortor at. Cras sed felis eget velit aliquet. Aliquam id diam maecenas ultricies mi eget. Eu non diam phasellus vestibulum lorem sed risus ultricies. Facilisis sed odio morbi quis commodo odio aenean. Sed risus ultricies tristique nulla. Pretium vulputate sapien nec sagittis aliquam malesuada bibendum arcu vitae. Ut sem viverra aliquet eget sit amet. Consectetur lorem donec massa sapien faucibus et molestie ac. Feugiat in ante metus dictum. Lacus luctus accumsan tortor posuere ac ut consequat semper viverra. Diam donec adipiscing tristique risus. Ridiculus mus mauris vitae ultricies leo integer malesuada nunc vel. Amet massa vitae tortor condimentum lacinia quis vel eros donec. Faucibus et molestie ac feugiat sed lectus. Quis vel eros donec ac odio. Ut ornare lectus sit amet est placerat in. Neque volutpat ac tincidunt vitae semper quis lectus nulla. Quam pellentesque nec nam aliquam sem. Fermentum leo vel orci porta. Condimentum lacinia quis vel eros donec. Eleifend donec pretium vulputate sapien nec sagittis aliquam. Egestas maecenas pharetra convallis posuere morbi leo urna. Sem integer vitae justo eget magna fermentum iaculis. Egestas congue quisque egestas diam in. Etiam erat velit scelerisque in dictum non consectetur. Venenatis urna cursus eget nunc. Venenatis cras sed felis eget velit aliquet sagittis id consectetur. Vel fringilla est ullamcorper eget nulla facilisi etiam dignissim. Sapien faucibus et molestie ac feugiat sed lectus vestibulum. Ultricies lacus sed turpis tincidunt id aliquet risus feugiat. Id ornare arcu odio ut sem. Odio eu feugiat pretium nibh. Cras pulvinar mattis nunc sed. Facilisis volutpat est velit egestas dui id ornare. Est sit amet facilisis magna etiam tempor orci. Metus aliquam eleifend mi in. Tellus id interdum velit laoreet id. Nisi porta lorem mollis aliquam. Velit laoreet id donec ultrices tincidunt arcu non sodales neque. Ut tellus elementum sagittis vitae. Sit amet luctus venenatis lectus. Dictum sit amet justo donec enim diam vulputate ut. Quis vel eros donec ac odio tempor orci dapibus ultrices. Purus gravida quis blandit turpis cursus. Turpis egestas pretium aenean pharetra magna ac placerat vestibulum. Porttitor massa id neque aliquam vestibulum morbi blandit cursus risus. Commodo sed egestas egestas fringilla phasellus. Cursus mattis molestie a iaculis at erat. Ac ut consequat semper viverra nam libero justo. Nulla facilisi nullam vehicula ipsum a arcu. Malesuada fames ac turpis egestas maecenas pharetra convallis posuere morbi. Id donec ultrices tincidunt arcu non sodales. Tristique risus nec feugiat in fermentum posuere. Ultrices gravida dictum fusce ut placerat. In mollis nunc sed id semper risus. Maecenas sed enim ut sem viverra aliquet eget sit. A cras semper auctor neque vitae tempus quam. Gravida quis blandit turpis cursus. Egestas maecenas pharetra convallis posuere. Orci eu lobortis elementum nibh tellus. Nunc faucibus a pellentesque sit amet porttitor. Purus faucibus ornare suspendisse sed nisi lacus sed. Curabitur vitae nunc sed velit dignissim sodales ut. Eget duis at tellus at urna condimentum. Diam ut venenatis tellus in. Eget velit aliquet sagittis id consectetur. Pellentesque dignissim enim sit amet venenatis urna cursus. Amet luctus venenatis lectus magna fringilla urna porttitor rhoncus dolor. Congue quisque egestas diam in arcu. Cursus euismod quis viverra nibh cras pulvinar mattis nunc sed. Ornare suspendisse sed nisi lacus sed viverra tellus in hac. Consequat mauris nunc congue nisi vitae suscipit tellus mauris a. Cras tincidunt lobortis feugiat vivamus at augue eget arcu. Aliquam ultrices sagittis orci a scelerisque purus semper eget duis. Gravida dictum fusce ut placerat orci nulla. Neque egestas congue quisque egestas. Platea dictumst vestibulum rhoncus est pellentesque elit. In ornare quam viverra orci sagittis eu volutpat odio facilisis. Cras ornare arcu dui vivamus arcu felis bibendum ut tristique. Condimentum vitae sapien pellentesque habitant. Nisl tincidunt eget nullam non nisi est sit. Ullamcorper morbi tincidunt ornare massa eget egestas purus viverra. In vitae turpis massa sed. Nec ullamcorper sit amet risus nullam eget. Mi sit amet mauris commodo quis. Curabitur gravida arcu ac tortor dignissim convallis aenean et. Risus ultricies tristique nulla aliquet enim tortor at auctor urna. Ullamcorper malesuada proin libero nunc consequat interdum varius. Adipiscing vitae proin sagittis nisl. A iaculis at erat pellentesque adipiscing commodo. Ultricies tristique nulla aliquet enim tortor at auctor urna nunc. At ultrices mi tempus imperdiet nulla malesuada pellentesque elit eget. In ornare quam viverra orci sagittis eu volutpat. Venenatis a condimentum vitae sapien. Dignissim sodales ut eu sem integer. Auctor augue mauris augue neque gravida in fermentum. Diam volutpat commodo sed egestas egestas fringilla. Tellus rutrum tellus pellentesque eu tincidunt tortor aliquam nulla facilisi. Est ante in nibh mauris. Lobortis elementum nibh tellus molestie nunc non blandit massa. Nisl suscipit adipiscing bibendum est ultricies integer. Sed velit dignissim sodales ut eu sem integer vitae. A diam sollicitudin tempor id. Amet est placerat in egestas erat. Amet consectetur adipiscing elit pellentesque. Arcu risus quis varius quam quisque. Nisi est sit amet facilisis magna etiam tempor orci eu. Cursus euismod quis viverra nibh cras. Ultrices mi tempus imperdiet nulla. Dictum fusce ut placerat orci nulla pellentesque dignissim enim. Nulla aliquet porttitor lacus luctus accumsan tortor posuere. Nisl nisi scelerisque eu ultrices vitae auctor eu augue ut. Dolor sit amet consectetur adipiscing elit ut aliquam purus. Nam libero justo laoreet sit amet cursus sit. Consequat semper viverra nam libero justo laoreet. Augue mauris augue neque gravida in fermentum et sollicitudin ac. Amet luctus venenatis lectus magna. Risus quis varius quam quisque id diam. Nunc sed id semper risus in hendrerit. Eros in cursus turpis massa tincidunt dui ut. Enim nec dui nunc mattis enim ut tellus elementum. Facilisis sed odio morbi quis commodo odio aenean sed adipiscing. Neque ornare aenean euismod elementum nisi. Vestibulum mattis ullamcorper velit sed ullamcorper morbi. Pharetra convallis posuere morbi leo. In eu mi bibendum neque egestas congue quisque egestas diam. Condimentum lacinia quis vel eros donec ac odio tempor orci. Malesuada proin libero nunc consequat interdum varius sit. Et netus et malesuada fames. Vitae congue mauris rhoncus aenean vel elit scelerisque mauris pellentesque. Pellentesque habitant morbi tristique senectus. Adipiscing commodo elit at imperdiet dui accumsan sit. Enim diam vulputate ut pharetra. Tempus egestas sed sed risus. Proin libero nunc consequat interdum varius sit amet. Mi proin sed libero enim sed faucibus turpis. Pharetra magna ac placerat vestibulum lectus mauris ultrices. Cursus euismod quis viverra nibh cras pulvinar mattis nunc sed. Posuere sollicitudin aliquam ultrices sagittis orci a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
   </si>
   <si>
     <t>Atriaal tachycardie/ Atipische avnrt</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
   <si>
     <t>AVRT/ AVNRT/ Atriaal tachycardie</t>
@@ -59,7 +87,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -80,6 +108,11 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1558,7 +1591,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s" s="12">
         <v>5</v>
@@ -1570,7 +1603,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="12"/>
@@ -1581,10 +1614,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s" s="11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s" s="12">
         <v>5</v>
@@ -1596,10 +1629,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s" s="7">
         <v>12</v>
-      </c>
-      <c r="C7" t="s" s="7">
-        <v>11</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="9"/>
